--- a/export_data/template.xlsx
+++ b/export_data/template.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\individual\BOT_Trade_Polymarket\export_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F191CDA-4F15-498B-B883-E1265503AD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0810BF00-5379-4E0E-AC3A-2D823CA78B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="3" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="3" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Phiên</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Time</t>
   </si>
@@ -55,18 +51,6 @@
     <t>% Delta</t>
   </si>
   <si>
-    <t>12:00 AM</t>
-  </si>
-  <si>
-    <t>12:15 AM</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Profit/ Loss</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -88,9 +72,6 @@
     <t>Time matched</t>
   </si>
   <si>
-    <t>Overview</t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -100,30 +81,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Số lệnh phân bổ</t>
-  </si>
-  <si>
-    <t>Tỷ lệ phân bổ</t>
-  </si>
-  <si>
-    <t>Số trận thắng</t>
-  </si>
-  <si>
-    <t>Tỷ lệ thắng</t>
-  </si>
-  <si>
-    <t>Khung thời gian</t>
-  </si>
-  <si>
-    <t>0-4 phút</t>
-  </si>
-  <si>
-    <t>4-8 phút</t>
-  </si>
-  <si>
-    <t>8-12 phút</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -134,6 +91,42 @@
   </si>
   <si>
     <t>Win - win/trade rate</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>winrate</t>
+  </si>
+  <si>
+    <t>Rounds</t>
+  </si>
+  <si>
+    <t>Win rounds</t>
+  </si>
+  <si>
+    <t>Win rate</t>
+  </si>
+  <si>
+    <t>0-4 mins</t>
+  </si>
+  <si>
+    <t>4-6 mins</t>
+  </si>
+  <si>
+    <t>6-8 mins</t>
+  </si>
+  <si>
+    <t>rounds</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Time frames</t>
+  </si>
+  <si>
+    <t>Time frames of Win rounds</t>
   </si>
 </sst>
 </file>
@@ -177,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +183,14 @@
         <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -251,13 +250,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,10 +327,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,7 +340,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -611,91 +670,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B38278-1514-41D1-A156-3596D2A3FBBF}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFFF00 Internal</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825D0D34-EC5E-40D7-A29F-8E7C5438533A}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.77734375" customWidth="1"/>
+    <col min="13" max="15" width="8.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
@@ -704,10 +723,18 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
@@ -716,192 +743,440 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="14"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="14"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="14"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="N10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="12"/>
       <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F8:H8"/>
+  <mergeCells count="14">
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="L8:T8"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="F8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -925,40 +1200,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
